--- a/ogf-log.xlsx
+++ b/ogf-log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10708"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\upk_elogsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/upk-elogsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C4D8E7-31D0-4D73-94BC-2774C3A8C3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF9270D-56AD-A740-BC05-CA4C8B7C895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL ROOM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="55">
   <si>
     <t xml:space="preserve"> OUT GOING FEEDER PL AMPENAN</t>
   </si>
@@ -44,9 +44,6 @@
     <t>FEEDER PANARAGA</t>
   </si>
   <si>
-    <t>FEEDER PRAYA</t>
-  </si>
-  <si>
     <t>KOPEL TAMAN A</t>
   </si>
   <si>
@@ -59,13 +56,7 @@
     <t>FEEDER GOMONG</t>
   </si>
   <si>
-    <t>FEEDER KEDIRI</t>
-  </si>
-  <si>
     <t>KOPEL GI 2</t>
-  </si>
-  <si>
-    <t>KOPEL AMPENAN - BIAU</t>
   </si>
   <si>
     <t>WAKTU INPUT</t>
@@ -116,9 +107,6 @@
     <t>PS 9</t>
   </si>
   <si>
-    <t>PRAYA</t>
-  </si>
-  <si>
     <t>SENGGIGI</t>
   </si>
   <si>
@@ -126,12 +114,6 @@
   </si>
   <si>
     <t>GOMONG</t>
-  </si>
-  <si>
-    <t>KEDIRI</t>
-  </si>
-  <si>
-    <t>KPEL AMPENAN - BIAU</t>
   </si>
   <si>
     <t>INCOMING 1</t>
@@ -190,6 +172,21 @@
   <si>
     <t>INTERCONNECTOR 3</t>
   </si>
+  <si>
+    <t>BENGKEL</t>
+  </si>
+  <si>
+    <t>BUNG KARNO</t>
+  </si>
+  <si>
+    <t>LINGKAR</t>
+  </si>
+  <si>
+    <t>FEEDER BENGKEL</t>
+  </si>
+  <si>
+    <t>FEEDER BUNG KARNO</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,60 +725,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -793,85 +736,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -905,6 +779,129 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1607,17 +1604,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN11" sqref="AN11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="50" max="50" width="23.42578125" customWidth="1"/>
-    <col min="51" max="51" width="31.85546875" customWidth="1"/>
+    <col min="50" max="50" width="23.5" customWidth="1"/>
+    <col min="51" max="51" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="20.25">
+    <row r="1" spans="1:51" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1670,7 +1667,7 @@
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
     </row>
-    <row r="2" spans="1:51" ht="20.25">
+    <row r="2" spans="1:51" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1723,7 +1720,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
     </row>
-    <row r="3" spans="1:51" ht="30" customHeight="1">
+    <row r="3" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1774,345 +1771,345 @@
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
     </row>
-    <row r="4" spans="1:51">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="33" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="33" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="33" t="s">
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="33" t="s">
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="33" t="s">
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="33" t="s">
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="33" t="s">
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="33" t="s">
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="33" t="s">
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="33" t="s">
+      <c r="AY4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="33" t="s">
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A5" s="47"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="59"/>
+      <c r="AV5" s="59"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="53"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="62"/>
+      <c r="AV6" s="62"/>
+      <c r="AW6" s="62"/>
+      <c r="AX6" s="50"/>
+      <c r="AY6" s="53"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="27" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AY4" s="30" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:51">
-      <c r="A5" s="25"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="31"/>
-    </row>
-    <row r="6" spans="1:51">
-      <c r="A6" s="25"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="39"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="40"/>
-      <c r="AX6" s="28"/>
-      <c r="AY6" s="31"/>
-    </row>
-    <row r="7" spans="1:51">
-      <c r="A7" s="26"/>
-      <c r="B7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="N7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="R7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="V7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Z7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="AD7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AE7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="AH7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AI7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="AL7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AM7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="AP7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AQ7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="AT7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AU7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="32"/>
-    </row>
-    <row r="8" spans="1:51">
+      <c r="AX7" s="51"/>
+      <c r="AY7" s="54"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -2267,7 +2264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2320,7 +2317,7 @@
       <c r="AX9" s="19"/>
       <c r="AY9" s="20"/>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2373,7 +2370,7 @@
       <c r="AX10" s="19"/>
       <c r="AY10" s="20"/>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2426,7 +2423,7 @@
       <c r="AX11" s="19"/>
       <c r="AY11" s="20"/>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2479,7 +2476,7 @@
       <c r="AX12" s="19"/>
       <c r="AY12" s="20"/>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2532,7 +2529,7 @@
       <c r="AX13" s="19"/>
       <c r="AY13" s="20"/>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2585,7 +2582,7 @@
       <c r="AX14" s="19"/>
       <c r="AY14" s="20"/>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2638,7 +2635,7 @@
       <c r="AX15" s="19"/>
       <c r="AY15" s="20"/>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2691,7 +2688,7 @@
       <c r="AX16" s="19"/>
       <c r="AY16" s="20"/>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2744,7 +2741,7 @@
       <c r="AX17" s="19"/>
       <c r="AY17" s="20"/>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2797,7 +2794,7 @@
       <c r="AX18" s="19"/>
       <c r="AY18" s="20"/>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2850,7 +2847,7 @@
       <c r="AX19" s="19"/>
       <c r="AY19" s="20"/>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2903,7 +2900,7 @@
       <c r="AX20" s="19"/>
       <c r="AY20" s="20"/>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2956,7 +2953,7 @@
       <c r="AX21" s="19"/>
       <c r="AY21" s="20"/>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3009,7 +3006,7 @@
       <c r="AX22" s="19"/>
       <c r="AY22" s="20"/>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3062,7 +3059,7 @@
       <c r="AX23" s="19"/>
       <c r="AY23" s="20"/>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3115,7 +3112,7 @@
       <c r="AX24" s="19"/>
       <c r="AY24" s="20"/>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3168,7 +3165,7 @@
       <c r="AX25" s="19"/>
       <c r="AY25" s="20"/>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3221,7 +3218,7 @@
       <c r="AX26" s="19"/>
       <c r="AY26" s="20"/>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3274,7 +3271,7 @@
       <c r="AX27" s="19"/>
       <c r="AY27" s="20"/>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3327,7 +3324,7 @@
       <c r="AX28" s="19"/>
       <c r="AY28" s="20"/>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -3380,7 +3377,7 @@
       <c r="AX29" s="19"/>
       <c r="AY29" s="20"/>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3433,7 +3430,7 @@
       <c r="AX30" s="19"/>
       <c r="AY30" s="20"/>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3486,7 +3483,7 @@
       <c r="AX31" s="19"/>
       <c r="AY31" s="20"/>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3539,7 +3536,7 @@
       <c r="AX32" s="19"/>
       <c r="AY32" s="20"/>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3592,7 +3589,7 @@
       <c r="AX33" s="19"/>
       <c r="AY33" s="20"/>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -3645,7 +3642,7 @@
       <c r="AX34" s="19"/>
       <c r="AY34" s="20"/>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3725,2370 +3722,2314 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0961EBA6-69B7-47EA-9524-4C5A16E77B97}">
   <dimension ref="A1:BH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A32"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="59" max="59" width="24.85546875" customWidth="1"/>
-    <col min="60" max="60" width="30.85546875" customWidth="1"/>
+    <col min="59" max="59" width="24.83203125" customWidth="1"/>
+    <col min="60" max="60" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15.75">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="47" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="48" t="s">
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-    </row>
-    <row r="2" spans="1:60">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43" t="s">
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="28"/>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="43" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="28"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="28"/>
+      <c r="BF4" s="28"/>
+    </row>
+    <row r="5" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="47" t="s">
+      <c r="B5" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-    </row>
-    <row r="3" spans="1:60">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="47" t="s">
+      <c r="E5" s="86"/>
+      <c r="F5" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="76"/>
+      <c r="H5" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="76"/>
+      <c r="J5" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="86"/>
+      <c r="L5" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="76"/>
+      <c r="N5" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP5" s="69"/>
+      <c r="AQ5" s="70"/>
+      <c r="AR5" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS5" s="69"/>
+      <c r="AT5" s="70"/>
+      <c r="AU5" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="70"/>
+      <c r="AX5" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY5" s="78"/>
+      <c r="AZ5" s="79"/>
+      <c r="BA5" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB5" s="78"/>
+      <c r="BC5" s="79"/>
+      <c r="BD5" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE5" s="78"/>
+      <c r="BF5" s="78"/>
+      <c r="BG5" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH5" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="84"/>
+      <c r="B6" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="76"/>
+      <c r="T6" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="76"/>
+      <c r="V6" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="76"/>
+      <c r="X6" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD6" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE6" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG6" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH6" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI6" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ6" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK6" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL6" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM6" s="69"/>
+      <c r="AN6" s="70"/>
+      <c r="AO6" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="70"/>
+      <c r="AR6" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="70"/>
+      <c r="AU6" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="70"/>
+      <c r="AX6" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY6" s="78"/>
+      <c r="AZ6" s="79"/>
+      <c r="BA6" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB6" s="78"/>
+      <c r="BC6" s="79"/>
+      <c r="BD6" s="77"/>
+      <c r="BE6" s="78"/>
+      <c r="BF6" s="78"/>
+      <c r="BG6" s="80"/>
+      <c r="BH6" s="80"/>
+    </row>
+    <row r="7" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="74"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="67"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="67"/>
+      <c r="AL7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG7" s="80"/>
+      <c r="BH7" s="80"/>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A8" s="36">
+        <v>1</v>
+      </c>
+      <c r="B8" s="37">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36">
+        <v>4</v>
+      </c>
+      <c r="E8" s="37">
+        <v>5</v>
+      </c>
+      <c r="F8" s="36">
+        <v>6</v>
+      </c>
+      <c r="G8" s="36">
+        <v>7</v>
+      </c>
+      <c r="H8" s="37">
+        <v>8</v>
+      </c>
+      <c r="I8" s="36">
+        <v>9</v>
+      </c>
+      <c r="J8" s="36">
+        <v>10</v>
+      </c>
+      <c r="K8" s="37">
+        <v>11</v>
+      </c>
+      <c r="L8" s="36">
+        <v>12</v>
+      </c>
+      <c r="M8" s="36">
+        <v>13</v>
+      </c>
+      <c r="N8" s="37">
+        <v>14</v>
+      </c>
+      <c r="O8" s="36">
+        <v>15</v>
+      </c>
+      <c r="P8" s="36">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="37">
+        <v>17</v>
+      </c>
+      <c r="R8" s="36">
+        <v>18</v>
+      </c>
+      <c r="S8" s="36">
+        <v>19</v>
+      </c>
+      <c r="T8" s="37">
+        <v>20</v>
+      </c>
+      <c r="U8" s="36">
+        <v>21</v>
+      </c>
+      <c r="V8" s="36">
+        <v>22</v>
+      </c>
+      <c r="W8" s="37">
+        <v>23</v>
+      </c>
+      <c r="X8" s="36">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="36">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="37">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="36">
         <v>27</v>
       </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="46"/>
-    </row>
-    <row r="4" spans="1:60">
-      <c r="A4" s="42"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-    </row>
-    <row r="5" spans="1:60" ht="15.75">
-      <c r="A5" s="50" t="s">
+      <c r="AB8" s="36">
         <v>28</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="AC8" s="37">
         <v>29</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="51" t="s">
+      <c r="AD8" s="36">
         <v>30</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53" t="s">
+      <c r="AE8" s="36">
         <v>31</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="53" t="s">
+      <c r="AF8" s="37">
         <v>32</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="51" t="s">
+      <c r="AG8" s="36">
         <v>33</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="53" t="s">
+      <c r="AH8" s="36">
         <v>34</v>
       </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="53" t="s">
+      <c r="AI8" s="37">
         <v>35</v>
       </c>
-      <c r="O5" s="54"/>
-      <c r="P5" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55" t="s">
+      <c r="AJ8" s="36">
         <v>36</v>
       </c>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="57" t="s">
+      <c r="AK8" s="36">
         <v>37</v>
       </c>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="57" t="s">
+      <c r="AL8" s="37">
         <v>38</v>
       </c>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="57" t="s">
+      <c r="AM8" s="36">
         <v>39</v>
       </c>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="57" t="s">
+      <c r="AN8" s="36">
         <v>40</v>
       </c>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="57" t="s">
+      <c r="AO8" s="37">
         <v>41</v>
       </c>
-      <c r="AS5" s="58"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="57" t="s">
+      <c r="AP8" s="36">
         <v>42</v>
       </c>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="60" t="s">
+      <c r="AQ8" s="36">
         <v>43</v>
       </c>
-      <c r="AY5" s="61"/>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="60" t="s">
+      <c r="AR8" s="37">
         <v>44</v>
       </c>
-      <c r="BB5" s="61"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="60" t="s">
+      <c r="AS8" s="36">
         <v>45</v>
       </c>
-      <c r="BE5" s="61"/>
-      <c r="BF5" s="61"/>
-      <c r="BG5" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="BH5" s="63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" ht="15.75">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65" t="s">
+      <c r="AT8" s="36">
         <v>46</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="AU8" s="37">
         <v>47</v>
       </c>
-      <c r="D6" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="54"/>
-      <c r="T6" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="U6" s="54"/>
-      <c r="V6" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" s="54"/>
-      <c r="X6" s="66" t="s">
+      <c r="AV8" s="36">
         <v>48</v>
       </c>
-      <c r="Y6" s="50" t="s">
+      <c r="AW8" s="36">
         <v>49</v>
       </c>
-      <c r="Z6" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA6" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB6" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC6" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD6" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE6" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF6" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG6" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH6" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI6" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ6" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK6" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL6" s="57" t="s">
+      <c r="AX8" s="37">
         <v>50</v>
       </c>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="57" t="s">
+      <c r="AY8" s="36">
         <v>51</v>
       </c>
-      <c r="AP6" s="58"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="57" t="s">
+      <c r="AZ8" s="36">
         <v>52</v>
       </c>
-      <c r="AS6" s="58"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="57" t="s">
+      <c r="BA8" s="37">
         <v>53</v>
       </c>
-      <c r="AV6" s="58"/>
-      <c r="AW6" s="59"/>
-      <c r="AX6" s="60" t="s">
+      <c r="BB8" s="36">
         <v>54</v>
       </c>
-      <c r="AY6" s="61"/>
-      <c r="AZ6" s="62"/>
-      <c r="BA6" s="60" t="s">
+      <c r="BC8" s="36">
         <v>55</v>
       </c>
-      <c r="BB6" s="61"/>
-      <c r="BC6" s="62"/>
-      <c r="BD6" s="60"/>
-      <c r="BE6" s="61"/>
-      <c r="BF6" s="61"/>
-      <c r="BG6" s="63"/>
-      <c r="BH6" s="63"/>
-    </row>
-    <row r="7" spans="1:60" ht="15.75">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="V7" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="W7" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="73"/>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM7" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN7" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO7" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP7" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ7" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR7" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS7" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT7" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU7" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV7" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW7" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX7" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY7" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ7" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="BA7" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB7" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC7" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD7" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE7" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF7" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="BG7" s="63"/>
-      <c r="BH7" s="63"/>
-    </row>
-    <row r="8" spans="1:60">
-      <c r="A8" s="77">
-        <v>1</v>
-      </c>
-      <c r="B8" s="78">
-        <v>2</v>
-      </c>
-      <c r="C8" s="77">
-        <v>3</v>
-      </c>
-      <c r="D8" s="77">
-        <v>4</v>
-      </c>
-      <c r="E8" s="78">
-        <v>5</v>
-      </c>
-      <c r="F8" s="77">
-        <v>6</v>
-      </c>
-      <c r="G8" s="77">
-        <v>7</v>
-      </c>
-      <c r="H8" s="78">
-        <v>8</v>
-      </c>
-      <c r="I8" s="77">
-        <v>9</v>
-      </c>
-      <c r="J8" s="77">
-        <v>10</v>
-      </c>
-      <c r="K8" s="78">
-        <v>11</v>
-      </c>
-      <c r="L8" s="77">
-        <v>12</v>
-      </c>
-      <c r="M8" s="77">
-        <v>13</v>
-      </c>
-      <c r="N8" s="78">
-        <v>14</v>
-      </c>
-      <c r="O8" s="77">
-        <v>15</v>
-      </c>
-      <c r="P8" s="77">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="78">
-        <v>17</v>
-      </c>
-      <c r="R8" s="77">
-        <v>18</v>
-      </c>
-      <c r="S8" s="77">
-        <v>19</v>
-      </c>
-      <c r="T8" s="78">
-        <v>20</v>
-      </c>
-      <c r="U8" s="77">
-        <v>21</v>
-      </c>
-      <c r="V8" s="77">
-        <v>22</v>
-      </c>
-      <c r="W8" s="78">
-        <v>23</v>
-      </c>
-      <c r="X8" s="77">
-        <v>24</v>
-      </c>
-      <c r="Y8" s="77">
-        <v>25</v>
-      </c>
-      <c r="Z8" s="78">
-        <v>26</v>
-      </c>
-      <c r="AA8" s="77">
-        <v>27</v>
-      </c>
-      <c r="AB8" s="77">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="78">
-        <v>29</v>
-      </c>
-      <c r="AD8" s="77">
-        <v>30</v>
-      </c>
-      <c r="AE8" s="77">
-        <v>31</v>
-      </c>
-      <c r="AF8" s="78">
-        <v>32</v>
-      </c>
-      <c r="AG8" s="77">
-        <v>33</v>
-      </c>
-      <c r="AH8" s="77">
-        <v>34</v>
-      </c>
-      <c r="AI8" s="78">
-        <v>35</v>
-      </c>
-      <c r="AJ8" s="77">
-        <v>36</v>
-      </c>
-      <c r="AK8" s="77">
-        <v>37</v>
-      </c>
-      <c r="AL8" s="78">
-        <v>38</v>
-      </c>
-      <c r="AM8" s="77">
-        <v>39</v>
-      </c>
-      <c r="AN8" s="77">
-        <v>40</v>
-      </c>
-      <c r="AO8" s="78">
-        <v>41</v>
-      </c>
-      <c r="AP8" s="77">
-        <v>42</v>
-      </c>
-      <c r="AQ8" s="77">
-        <v>43</v>
-      </c>
-      <c r="AR8" s="78">
-        <v>44</v>
-      </c>
-      <c r="AS8" s="77">
-        <v>45</v>
-      </c>
-      <c r="AT8" s="77">
-        <v>46</v>
-      </c>
-      <c r="AU8" s="78">
-        <v>47</v>
-      </c>
-      <c r="AV8" s="77">
-        <v>48</v>
-      </c>
-      <c r="AW8" s="77">
-        <v>49</v>
-      </c>
-      <c r="AX8" s="78">
-        <v>50</v>
-      </c>
-      <c r="AY8" s="77">
-        <v>51</v>
-      </c>
-      <c r="AZ8" s="77">
-        <v>52</v>
-      </c>
-      <c r="BA8" s="78">
-        <v>53</v>
-      </c>
-      <c r="BB8" s="77">
-        <v>54</v>
-      </c>
-      <c r="BC8" s="77">
-        <v>55</v>
-      </c>
-      <c r="BD8" s="78">
+      <c r="BD8" s="37">
         <v>56</v>
       </c>
-      <c r="BE8" s="77">
+      <c r="BE8" s="36">
         <v>57</v>
       </c>
-      <c r="BF8" s="79">
+      <c r="BF8" s="38">
         <v>58</v>
       </c>
-      <c r="BG8" s="77">
+      <c r="BG8" s="36">
         <v>59</v>
       </c>
-      <c r="BH8" s="79">
+      <c r="BH8" s="38">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="15.75">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="81"/>
-      <c r="AE9" s="81"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="82"/>
-      <c r="AO9" s="82"/>
-      <c r="AP9" s="82"/>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="82"/>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="82"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="84"/>
+    <row r="9" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="41"/>
+      <c r="AR9" s="41"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="42"/>
+      <c r="BC9" s="42"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="42"/>
+      <c r="BF9" s="43"/>
       <c r="BG9" s="19"/>
       <c r="BH9" s="19"/>
     </row>
-    <row r="10" spans="1:60" ht="15.75">
-      <c r="A10" s="85"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="81"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="82"/>
-      <c r="AO10" s="82"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="83"/>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="83"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="83"/>
-      <c r="BF10" s="84"/>
+    <row r="10" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="44"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="41"/>
+      <c r="AR10" s="41"/>
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="42"/>
+      <c r="AV10" s="42"/>
+      <c r="AW10" s="42"/>
+      <c r="AX10" s="42"/>
+      <c r="AY10" s="42"/>
+      <c r="AZ10" s="42"/>
+      <c r="BA10" s="42"/>
+      <c r="BB10" s="42"/>
+      <c r="BC10" s="42"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="42"/>
+      <c r="BF10" s="43"/>
       <c r="BG10" s="19"/>
       <c r="BH10" s="19"/>
     </row>
-    <row r="11" spans="1:60" ht="15.75">
-      <c r="A11" s="85"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="81"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="82"/>
-      <c r="AO11" s="82"/>
-      <c r="AP11" s="82"/>
-      <c r="AQ11" s="82"/>
-      <c r="AR11" s="82"/>
-      <c r="AS11" s="82"/>
-      <c r="AT11" s="82"/>
-      <c r="AU11" s="83"/>
-      <c r="AV11" s="83"/>
-      <c r="AW11" s="83"/>
-      <c r="AX11" s="83"/>
-      <c r="AY11" s="83"/>
-      <c r="AZ11" s="83"/>
-      <c r="BA11" s="83"/>
-      <c r="BB11" s="83"/>
-      <c r="BC11" s="83"/>
-      <c r="BD11" s="83"/>
-      <c r="BE11" s="83"/>
-      <c r="BF11" s="84"/>
+    <row r="11" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="44"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="41"/>
+      <c r="AR11" s="41"/>
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="41"/>
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="42"/>
+      <c r="AX11" s="42"/>
+      <c r="AY11" s="42"/>
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="42"/>
+      <c r="BB11" s="42"/>
+      <c r="BC11" s="42"/>
+      <c r="BD11" s="42"/>
+      <c r="BE11" s="42"/>
+      <c r="BF11" s="43"/>
       <c r="BG11" s="19"/>
       <c r="BH11" s="19"/>
     </row>
-    <row r="12" spans="1:60" ht="15.75">
-      <c r="A12" s="85"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="81"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="81"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="82"/>
-      <c r="AI12" s="82"/>
-      <c r="AJ12" s="82"/>
-      <c r="AK12" s="82"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="82"/>
-      <c r="AO12" s="82"/>
-      <c r="AP12" s="82"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="82"/>
-      <c r="AU12" s="83"/>
-      <c r="AV12" s="83"/>
-      <c r="AW12" s="83"/>
-      <c r="AX12" s="83"/>
-      <c r="AY12" s="83"/>
-      <c r="AZ12" s="83"/>
-      <c r="BA12" s="83"/>
-      <c r="BB12" s="83"/>
-      <c r="BC12" s="83"/>
-      <c r="BD12" s="83"/>
-      <c r="BE12" s="83"/>
-      <c r="BF12" s="84"/>
+    <row r="12" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="44"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="41"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="43"/>
       <c r="BG12" s="19"/>
       <c r="BH12" s="19"/>
     </row>
-    <row r="13" spans="1:60" ht="15.75">
-      <c r="A13" s="85"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="82"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="82"/>
-      <c r="AU13" s="83"/>
-      <c r="AV13" s="83"/>
-      <c r="AW13" s="83"/>
-      <c r="AX13" s="83"/>
-      <c r="AY13" s="83"/>
-      <c r="AZ13" s="83"/>
-      <c r="BA13" s="83"/>
-      <c r="BB13" s="83"/>
-      <c r="BC13" s="83"/>
-      <c r="BD13" s="83"/>
-      <c r="BE13" s="83"/>
-      <c r="BF13" s="84"/>
+    <row r="13" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="44"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="42"/>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="42"/>
+      <c r="AY13" s="42"/>
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="42"/>
+      <c r="BB13" s="42"/>
+      <c r="BC13" s="42"/>
+      <c r="BD13" s="42"/>
+      <c r="BE13" s="42"/>
+      <c r="BF13" s="43"/>
       <c r="BG13" s="19"/>
       <c r="BH13" s="19"/>
     </row>
-    <row r="14" spans="1:60" ht="15.75">
-      <c r="A14" s="85"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="81"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="82"/>
-      <c r="AJ14" s="82"/>
-      <c r="AK14" s="82"/>
-      <c r="AL14" s="82"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="82"/>
-      <c r="AO14" s="82"/>
-      <c r="AP14" s="82"/>
-      <c r="AQ14" s="82"/>
-      <c r="AR14" s="82"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="82"/>
-      <c r="AU14" s="83"/>
-      <c r="AV14" s="83"/>
-      <c r="AW14" s="83"/>
-      <c r="AX14" s="83"/>
-      <c r="AY14" s="83"/>
-      <c r="AZ14" s="83"/>
-      <c r="BA14" s="83"/>
-      <c r="BB14" s="83"/>
-      <c r="BC14" s="83"/>
-      <c r="BD14" s="83"/>
-      <c r="BE14" s="83"/>
-      <c r="BF14" s="84"/>
+    <row r="14" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
+      <c r="AN14" s="41"/>
+      <c r="AO14" s="41"/>
+      <c r="AP14" s="41"/>
+      <c r="AQ14" s="41"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="42"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="42"/>
+      <c r="AX14" s="42"/>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="42"/>
+      <c r="BA14" s="42"/>
+      <c r="BB14" s="42"/>
+      <c r="BC14" s="42"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="42"/>
+      <c r="BF14" s="43"/>
       <c r="BG14" s="19"/>
       <c r="BH14" s="19"/>
     </row>
-    <row r="15" spans="1:60" ht="15.75">
-      <c r="A15" s="85"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="82"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="82"/>
-      <c r="AN15" s="82"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="82"/>
-      <c r="AS15" s="82"/>
-      <c r="AT15" s="82"/>
-      <c r="AU15" s="83"/>
-      <c r="AV15" s="83"/>
-      <c r="AW15" s="83"/>
-      <c r="AX15" s="83"/>
-      <c r="AY15" s="83"/>
-      <c r="AZ15" s="83"/>
-      <c r="BA15" s="83"/>
-      <c r="BB15" s="83"/>
-      <c r="BC15" s="83"/>
-      <c r="BD15" s="83"/>
-      <c r="BE15" s="83"/>
-      <c r="BF15" s="84"/>
+    <row r="15" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="42"/>
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="42"/>
+      <c r="AY15" s="42"/>
+      <c r="AZ15" s="42"/>
+      <c r="BA15" s="42"/>
+      <c r="BB15" s="42"/>
+      <c r="BC15" s="42"/>
+      <c r="BD15" s="42"/>
+      <c r="BE15" s="42"/>
+      <c r="BF15" s="43"/>
       <c r="BG15" s="19"/>
       <c r="BH15" s="19"/>
     </row>
-    <row r="16" spans="1:60" ht="15.75">
-      <c r="A16" s="85"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="81"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="82"/>
-      <c r="AK16" s="82"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="82"/>
-      <c r="AN16" s="82"/>
-      <c r="AO16" s="82"/>
-      <c r="AP16" s="82"/>
-      <c r="AQ16" s="82"/>
-      <c r="AR16" s="82"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="82"/>
-      <c r="AU16" s="83"/>
-      <c r="AV16" s="83"/>
-      <c r="AW16" s="83"/>
-      <c r="AX16" s="83"/>
-      <c r="AY16" s="83"/>
-      <c r="AZ16" s="83"/>
-      <c r="BA16" s="83"/>
-      <c r="BB16" s="83"/>
-      <c r="BC16" s="83"/>
-      <c r="BD16" s="83"/>
-      <c r="BE16" s="83"/>
-      <c r="BF16" s="84"/>
+    <row r="16" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="41"/>
+      <c r="AN16" s="41"/>
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="41"/>
+      <c r="AQ16" s="41"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="42"/>
+      <c r="AV16" s="42"/>
+      <c r="AW16" s="42"/>
+      <c r="AX16" s="42"/>
+      <c r="AY16" s="42"/>
+      <c r="AZ16" s="42"/>
+      <c r="BA16" s="42"/>
+      <c r="BB16" s="42"/>
+      <c r="BC16" s="42"/>
+      <c r="BD16" s="42"/>
+      <c r="BE16" s="42"/>
+      <c r="BF16" s="43"/>
       <c r="BG16" s="19"/>
       <c r="BH16" s="19"/>
     </row>
-    <row r="17" spans="1:60" ht="15.75">
-      <c r="A17" s="85"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="82"/>
-      <c r="AH17" s="82"/>
-      <c r="AI17" s="82"/>
-      <c r="AJ17" s="82"/>
-      <c r="AK17" s="82"/>
-      <c r="AL17" s="82"/>
-      <c r="AM17" s="82"/>
-      <c r="AN17" s="82"/>
-      <c r="AO17" s="82"/>
-      <c r="AP17" s="82"/>
-      <c r="AQ17" s="82"/>
-      <c r="AR17" s="82"/>
-      <c r="AS17" s="82"/>
-      <c r="AT17" s="82"/>
-      <c r="AU17" s="83"/>
-      <c r="AV17" s="83"/>
-      <c r="AW17" s="83"/>
-      <c r="AX17" s="83"/>
-      <c r="AY17" s="83"/>
-      <c r="AZ17" s="83"/>
-      <c r="BA17" s="83"/>
-      <c r="BB17" s="83"/>
-      <c r="BC17" s="83"/>
-      <c r="BD17" s="83"/>
-      <c r="BE17" s="83"/>
-      <c r="BF17" s="84"/>
+    <row r="17" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="41"/>
+      <c r="AN17" s="41"/>
+      <c r="AO17" s="41"/>
+      <c r="AP17" s="41"/>
+      <c r="AQ17" s="41"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="41"/>
+      <c r="AT17" s="41"/>
+      <c r="AU17" s="42"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="42"/>
+      <c r="AY17" s="42"/>
+      <c r="AZ17" s="42"/>
+      <c r="BA17" s="42"/>
+      <c r="BB17" s="42"/>
+      <c r="BC17" s="42"/>
+      <c r="BD17" s="42"/>
+      <c r="BE17" s="42"/>
+      <c r="BF17" s="43"/>
       <c r="BG17" s="19"/>
       <c r="BH17" s="19"/>
     </row>
-    <row r="18" spans="1:60" ht="15.75">
-      <c r="A18" s="85"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="81"/>
-      <c r="AF18" s="82"/>
-      <c r="AG18" s="82"/>
-      <c r="AH18" s="82"/>
-      <c r="AI18" s="82"/>
-      <c r="AJ18" s="82"/>
-      <c r="AK18" s="82"/>
-      <c r="AL18" s="82"/>
-      <c r="AM18" s="82"/>
-      <c r="AN18" s="82"/>
-      <c r="AO18" s="82"/>
-      <c r="AP18" s="82"/>
-      <c r="AQ18" s="82"/>
-      <c r="AR18" s="82"/>
-      <c r="AS18" s="82"/>
-      <c r="AT18" s="82"/>
-      <c r="AU18" s="83"/>
-      <c r="AV18" s="83"/>
-      <c r="AW18" s="83"/>
-      <c r="AX18" s="83"/>
-      <c r="AY18" s="83"/>
-      <c r="AZ18" s="83"/>
-      <c r="BA18" s="83"/>
-      <c r="BB18" s="83"/>
-      <c r="BC18" s="83"/>
-      <c r="BD18" s="83"/>
-      <c r="BE18" s="83"/>
-      <c r="BF18" s="84"/>
+    <row r="18" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="44"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="41"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="42"/>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="42"/>
+      <c r="AX18" s="42"/>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="42"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="42"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="42"/>
+      <c r="BF18" s="43"/>
       <c r="BG18" s="19"/>
       <c r="BH18" s="19"/>
     </row>
-    <row r="19" spans="1:60" ht="15.75">
-      <c r="A19" s="85"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="82"/>
-      <c r="AH19" s="82"/>
-      <c r="AI19" s="82"/>
-      <c r="AJ19" s="82"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="82"/>
-      <c r="AM19" s="82"/>
-      <c r="AN19" s="82"/>
-      <c r="AO19" s="82"/>
-      <c r="AP19" s="82"/>
-      <c r="AQ19" s="82"/>
-      <c r="AR19" s="82"/>
-      <c r="AS19" s="82"/>
-      <c r="AT19" s="82"/>
-      <c r="AU19" s="83"/>
-      <c r="AV19" s="83"/>
-      <c r="AW19" s="83"/>
-      <c r="AX19" s="83"/>
-      <c r="AY19" s="83"/>
-      <c r="AZ19" s="83"/>
-      <c r="BA19" s="83"/>
-      <c r="BB19" s="83"/>
-      <c r="BC19" s="83"/>
-      <c r="BD19" s="83"/>
-      <c r="BE19" s="83"/>
-      <c r="BF19" s="84"/>
+    <row r="19" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="44"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="41"/>
+      <c r="AO19" s="41"/>
+      <c r="AP19" s="41"/>
+      <c r="AQ19" s="41"/>
+      <c r="AR19" s="41"/>
+      <c r="AS19" s="41"/>
+      <c r="AT19" s="41"/>
+      <c r="AU19" s="42"/>
+      <c r="AV19" s="42"/>
+      <c r="AW19" s="42"/>
+      <c r="AX19" s="42"/>
+      <c r="AY19" s="42"/>
+      <c r="AZ19" s="42"/>
+      <c r="BA19" s="42"/>
+      <c r="BB19" s="42"/>
+      <c r="BC19" s="42"/>
+      <c r="BD19" s="42"/>
+      <c r="BE19" s="42"/>
+      <c r="BF19" s="43"/>
       <c r="BG19" s="19"/>
       <c r="BH19" s="19"/>
     </row>
-    <row r="20" spans="1:60" ht="15.75">
-      <c r="A20" s="85"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="81"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="82"/>
-      <c r="AI20" s="82"/>
-      <c r="AJ20" s="82"/>
-      <c r="AK20" s="82"/>
-      <c r="AL20" s="82"/>
-      <c r="AM20" s="82"/>
-      <c r="AN20" s="82"/>
-      <c r="AO20" s="82"/>
-      <c r="AP20" s="82"/>
-      <c r="AQ20" s="82"/>
-      <c r="AR20" s="82"/>
-      <c r="AS20" s="82"/>
-      <c r="AT20" s="82"/>
-      <c r="AU20" s="83"/>
-      <c r="AV20" s="83"/>
-      <c r="AW20" s="83"/>
-      <c r="AX20" s="83"/>
-      <c r="AY20" s="83"/>
-      <c r="AZ20" s="83"/>
-      <c r="BA20" s="83"/>
-      <c r="BB20" s="83"/>
-      <c r="BC20" s="83"/>
-      <c r="BD20" s="83"/>
-      <c r="BE20" s="83"/>
-      <c r="BF20" s="84"/>
+    <row r="20" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="44"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="42"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="42"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="42"/>
+      <c r="BB20" s="42"/>
+      <c r="BC20" s="42"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="42"/>
+      <c r="BF20" s="43"/>
       <c r="BG20" s="19"/>
       <c r="BH20" s="19"/>
     </row>
-    <row r="21" spans="1:60" ht="15.75">
-      <c r="A21" s="85"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="81"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="81"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="82"/>
-      <c r="AH21" s="82"/>
-      <c r="AI21" s="82"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="82"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="82"/>
-      <c r="AN21" s="82"/>
-      <c r="AO21" s="82"/>
-      <c r="AP21" s="82"/>
-      <c r="AQ21" s="82"/>
-      <c r="AR21" s="82"/>
-      <c r="AS21" s="82"/>
-      <c r="AT21" s="82"/>
-      <c r="AU21" s="83"/>
-      <c r="AV21" s="83"/>
-      <c r="AW21" s="83"/>
-      <c r="AX21" s="83"/>
-      <c r="AY21" s="83"/>
-      <c r="AZ21" s="83"/>
-      <c r="BA21" s="83"/>
-      <c r="BB21" s="83"/>
-      <c r="BC21" s="83"/>
-      <c r="BD21" s="83"/>
-      <c r="BE21" s="83"/>
-      <c r="BF21" s="84"/>
+    <row r="21" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="44"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="41"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="41"/>
+      <c r="AO21" s="41"/>
+      <c r="AP21" s="41"/>
+      <c r="AQ21" s="41"/>
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="41"/>
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="42"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="42"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="42"/>
+      <c r="AZ21" s="42"/>
+      <c r="BA21" s="42"/>
+      <c r="BB21" s="42"/>
+      <c r="BC21" s="42"/>
+      <c r="BD21" s="42"/>
+      <c r="BE21" s="42"/>
+      <c r="BF21" s="43"/>
       <c r="BG21" s="19"/>
       <c r="BH21" s="19"/>
     </row>
-    <row r="22" spans="1:60" ht="15.75">
-      <c r="A22" s="85"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="82"/>
-      <c r="AH22" s="82"/>
-      <c r="AI22" s="82"/>
-      <c r="AJ22" s="82"/>
-      <c r="AK22" s="82"/>
-      <c r="AL22" s="82"/>
-      <c r="AM22" s="82"/>
-      <c r="AN22" s="82"/>
-      <c r="AO22" s="82"/>
-      <c r="AP22" s="82"/>
-      <c r="AQ22" s="82"/>
-      <c r="AR22" s="82"/>
-      <c r="AS22" s="82"/>
-      <c r="AT22" s="82"/>
-      <c r="AU22" s="83"/>
-      <c r="AV22" s="83"/>
-      <c r="AW22" s="83"/>
-      <c r="AX22" s="83"/>
-      <c r="AY22" s="83"/>
-      <c r="AZ22" s="83"/>
-      <c r="BA22" s="83"/>
-      <c r="BB22" s="83"/>
-      <c r="BC22" s="83"/>
-      <c r="BD22" s="83"/>
-      <c r="BE22" s="83"/>
-      <c r="BF22" s="84"/>
+    <row r="22" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="44"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="41"/>
+      <c r="AM22" s="41"/>
+      <c r="AN22" s="41"/>
+      <c r="AO22" s="41"/>
+      <c r="AP22" s="41"/>
+      <c r="AQ22" s="41"/>
+      <c r="AR22" s="41"/>
+      <c r="AS22" s="41"/>
+      <c r="AT22" s="41"/>
+      <c r="AU22" s="42"/>
+      <c r="AV22" s="42"/>
+      <c r="AW22" s="42"/>
+      <c r="AX22" s="42"/>
+      <c r="AY22" s="42"/>
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="42"/>
+      <c r="BB22" s="42"/>
+      <c r="BC22" s="42"/>
+      <c r="BD22" s="42"/>
+      <c r="BE22" s="42"/>
+      <c r="BF22" s="43"/>
       <c r="BG22" s="19"/>
       <c r="BH22" s="19"/>
     </row>
-    <row r="23" spans="1:60" ht="15.75">
-      <c r="A23" s="85"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="82"/>
-      <c r="AH23" s="82"/>
-      <c r="AI23" s="82"/>
-      <c r="AJ23" s="82"/>
-      <c r="AK23" s="82"/>
-      <c r="AL23" s="82"/>
-      <c r="AM23" s="82"/>
-      <c r="AN23" s="82"/>
-      <c r="AO23" s="82"/>
-      <c r="AP23" s="82"/>
-      <c r="AQ23" s="82"/>
-      <c r="AR23" s="82"/>
-      <c r="AS23" s="82"/>
-      <c r="AT23" s="82"/>
-      <c r="AU23" s="83"/>
-      <c r="AV23" s="83"/>
-      <c r="AW23" s="83"/>
-      <c r="AX23" s="83"/>
-      <c r="AY23" s="83"/>
-      <c r="AZ23" s="83"/>
-      <c r="BA23" s="83"/>
-      <c r="BB23" s="83"/>
-      <c r="BC23" s="83"/>
-      <c r="BD23" s="83"/>
-      <c r="BE23" s="83"/>
-      <c r="BF23" s="84"/>
+    <row r="23" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="44"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="42"/>
+      <c r="AV23" s="42"/>
+      <c r="AW23" s="42"/>
+      <c r="AX23" s="42"/>
+      <c r="AY23" s="42"/>
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="42"/>
+      <c r="BB23" s="42"/>
+      <c r="BC23" s="42"/>
+      <c r="BD23" s="42"/>
+      <c r="BE23" s="42"/>
+      <c r="BF23" s="43"/>
       <c r="BG23" s="19"/>
       <c r="BH23" s="19"/>
     </row>
-    <row r="24" spans="1:60" ht="15.75">
-      <c r="A24" s="85"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="81"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="82"/>
-      <c r="AN24" s="82"/>
-      <c r="AO24" s="82"/>
-      <c r="AP24" s="82"/>
-      <c r="AQ24" s="82"/>
-      <c r="AR24" s="82"/>
-      <c r="AS24" s="82"/>
-      <c r="AT24" s="82"/>
-      <c r="AU24" s="83"/>
-      <c r="AV24" s="83"/>
-      <c r="AW24" s="83"/>
-      <c r="AX24" s="83"/>
-      <c r="AY24" s="83"/>
-      <c r="AZ24" s="83"/>
-      <c r="BA24" s="83"/>
-      <c r="BB24" s="83"/>
-      <c r="BC24" s="83"/>
-      <c r="BD24" s="83"/>
-      <c r="BE24" s="83"/>
-      <c r="BF24" s="84"/>
+    <row r="24" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="44"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="41"/>
+      <c r="AK24" s="41"/>
+      <c r="AL24" s="41"/>
+      <c r="AM24" s="41"/>
+      <c r="AN24" s="41"/>
+      <c r="AO24" s="41"/>
+      <c r="AP24" s="41"/>
+      <c r="AQ24" s="41"/>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="41"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="42"/>
+      <c r="AV24" s="42"/>
+      <c r="AW24" s="42"/>
+      <c r="AX24" s="42"/>
+      <c r="AY24" s="42"/>
+      <c r="AZ24" s="42"/>
+      <c r="BA24" s="42"/>
+      <c r="BB24" s="42"/>
+      <c r="BC24" s="42"/>
+      <c r="BD24" s="42"/>
+      <c r="BE24" s="42"/>
+      <c r="BF24" s="43"/>
       <c r="BG24" s="19"/>
       <c r="BH24" s="19"/>
     </row>
-    <row r="25" spans="1:60" ht="15.75">
-      <c r="A25" s="85"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="81"/>
-      <c r="AB25" s="81"/>
-      <c r="AC25" s="81"/>
-      <c r="AD25" s="81"/>
-      <c r="AE25" s="81"/>
-      <c r="AF25" s="82"/>
-      <c r="AG25" s="82"/>
-      <c r="AH25" s="82"/>
-      <c r="AI25" s="82"/>
-      <c r="AJ25" s="82"/>
-      <c r="AK25" s="82"/>
-      <c r="AL25" s="82"/>
-      <c r="AM25" s="82"/>
-      <c r="AN25" s="82"/>
-      <c r="AO25" s="82"/>
-      <c r="AP25" s="82"/>
-      <c r="AQ25" s="82"/>
-      <c r="AR25" s="82"/>
-      <c r="AS25" s="82"/>
-      <c r="AT25" s="82"/>
-      <c r="AU25" s="83"/>
-      <c r="AV25" s="83"/>
-      <c r="AW25" s="83"/>
-      <c r="AX25" s="83"/>
-      <c r="AY25" s="83"/>
-      <c r="AZ25" s="83"/>
-      <c r="BA25" s="83"/>
-      <c r="BB25" s="83"/>
-      <c r="BC25" s="83"/>
-      <c r="BD25" s="83"/>
-      <c r="BE25" s="83"/>
-      <c r="BF25" s="84"/>
+    <row r="25" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="44"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AK25" s="41"/>
+      <c r="AL25" s="41"/>
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="41"/>
+      <c r="AO25" s="41"/>
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="41"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="41"/>
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="42"/>
+      <c r="AV25" s="42"/>
+      <c r="AW25" s="42"/>
+      <c r="AX25" s="42"/>
+      <c r="AY25" s="42"/>
+      <c r="AZ25" s="42"/>
+      <c r="BA25" s="42"/>
+      <c r="BB25" s="42"/>
+      <c r="BC25" s="42"/>
+      <c r="BD25" s="42"/>
+      <c r="BE25" s="42"/>
+      <c r="BF25" s="43"/>
       <c r="BG25" s="19"/>
       <c r="BH25" s="19"/>
     </row>
-    <row r="26" spans="1:60" ht="15.75">
-      <c r="A26" s="85"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="81"/>
-      <c r="W26" s="81"/>
-      <c r="X26" s="81"/>
-      <c r="Y26" s="81"/>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="81"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="81"/>
-      <c r="AF26" s="82"/>
-      <c r="AG26" s="82"/>
-      <c r="AH26" s="82"/>
-      <c r="AI26" s="82"/>
-      <c r="AJ26" s="82"/>
-      <c r="AK26" s="82"/>
-      <c r="AL26" s="82"/>
-      <c r="AM26" s="82"/>
-      <c r="AN26" s="82"/>
-      <c r="AO26" s="82"/>
-      <c r="AP26" s="82"/>
-      <c r="AQ26" s="82"/>
-      <c r="AR26" s="82"/>
-      <c r="AS26" s="82"/>
-      <c r="AT26" s="82"/>
-      <c r="AU26" s="83"/>
-      <c r="AV26" s="83"/>
-      <c r="AW26" s="83"/>
-      <c r="AX26" s="83"/>
-      <c r="AY26" s="83"/>
-      <c r="AZ26" s="83"/>
-      <c r="BA26" s="83"/>
-      <c r="BB26" s="83"/>
-      <c r="BC26" s="83"/>
-      <c r="BD26" s="83"/>
-      <c r="BE26" s="83"/>
-      <c r="BF26" s="84"/>
+    <row r="26" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="44"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="41"/>
+      <c r="AK26" s="41"/>
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="41"/>
+      <c r="AN26" s="41"/>
+      <c r="AO26" s="41"/>
+      <c r="AP26" s="41"/>
+      <c r="AQ26" s="41"/>
+      <c r="AR26" s="41"/>
+      <c r="AS26" s="41"/>
+      <c r="AT26" s="41"/>
+      <c r="AU26" s="42"/>
+      <c r="AV26" s="42"/>
+      <c r="AW26" s="42"/>
+      <c r="AX26" s="42"/>
+      <c r="AY26" s="42"/>
+      <c r="AZ26" s="42"/>
+      <c r="BA26" s="42"/>
+      <c r="BB26" s="42"/>
+      <c r="BC26" s="42"/>
+      <c r="BD26" s="42"/>
+      <c r="BE26" s="42"/>
+      <c r="BF26" s="43"/>
       <c r="BG26" s="19"/>
       <c r="BH26" s="19"/>
     </row>
-    <row r="27" spans="1:60" ht="15.75">
-      <c r="A27" s="85"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="81"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="81"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="82"/>
-      <c r="AM27" s="82"/>
-      <c r="AN27" s="82"/>
-      <c r="AO27" s="82"/>
-      <c r="AP27" s="82"/>
-      <c r="AQ27" s="82"/>
-      <c r="AR27" s="82"/>
-      <c r="AS27" s="82"/>
-      <c r="AT27" s="82"/>
-      <c r="AU27" s="83"/>
-      <c r="AV27" s="83"/>
-      <c r="AW27" s="83"/>
-      <c r="AX27" s="83"/>
-      <c r="AY27" s="83"/>
-      <c r="AZ27" s="83"/>
-      <c r="BA27" s="83"/>
-      <c r="BB27" s="83"/>
-      <c r="BC27" s="83"/>
-      <c r="BD27" s="83"/>
-      <c r="BE27" s="83"/>
-      <c r="BF27" s="84"/>
+    <row r="27" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="42"/>
+      <c r="AV27" s="42"/>
+      <c r="AW27" s="42"/>
+      <c r="AX27" s="42"/>
+      <c r="AY27" s="42"/>
+      <c r="AZ27" s="42"/>
+      <c r="BA27" s="42"/>
+      <c r="BB27" s="42"/>
+      <c r="BC27" s="42"/>
+      <c r="BD27" s="42"/>
+      <c r="BE27" s="42"/>
+      <c r="BF27" s="43"/>
       <c r="BG27" s="19"/>
       <c r="BH27" s="19"/>
     </row>
-    <row r="28" spans="1:60" ht="15.75">
-      <c r="A28" s="85"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="81"/>
-      <c r="AF28" s="82"/>
-      <c r="AG28" s="82"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="82"/>
-      <c r="AM28" s="82"/>
-      <c r="AN28" s="82"/>
-      <c r="AO28" s="82"/>
-      <c r="AP28" s="82"/>
-      <c r="AQ28" s="82"/>
-      <c r="AR28" s="82"/>
-      <c r="AS28" s="82"/>
-      <c r="AT28" s="82"/>
-      <c r="AU28" s="83"/>
-      <c r="AV28" s="83"/>
-      <c r="AW28" s="83"/>
-      <c r="AX28" s="83"/>
-      <c r="AY28" s="83"/>
-      <c r="AZ28" s="83"/>
-      <c r="BA28" s="83"/>
-      <c r="BB28" s="83"/>
-      <c r="BC28" s="83"/>
-      <c r="BD28" s="83"/>
-      <c r="BE28" s="83"/>
-      <c r="BF28" s="84"/>
+    <row r="28" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="44"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="41"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+      <c r="AK28" s="41"/>
+      <c r="AL28" s="41"/>
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="41"/>
+      <c r="AO28" s="41"/>
+      <c r="AP28" s="41"/>
+      <c r="AQ28" s="41"/>
+      <c r="AR28" s="41"/>
+      <c r="AS28" s="41"/>
+      <c r="AT28" s="41"/>
+      <c r="AU28" s="42"/>
+      <c r="AV28" s="42"/>
+      <c r="AW28" s="42"/>
+      <c r="AX28" s="42"/>
+      <c r="AY28" s="42"/>
+      <c r="AZ28" s="42"/>
+      <c r="BA28" s="42"/>
+      <c r="BB28" s="42"/>
+      <c r="BC28" s="42"/>
+      <c r="BD28" s="42"/>
+      <c r="BE28" s="42"/>
+      <c r="BF28" s="43"/>
       <c r="BG28" s="19"/>
       <c r="BH28" s="19"/>
     </row>
-    <row r="29" spans="1:60" ht="15.75">
-      <c r="A29" s="85"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="81"/>
-      <c r="W29" s="81"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="81"/>
-      <c r="Z29" s="81"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" s="81"/>
-      <c r="AC29" s="81"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="81"/>
-      <c r="AF29" s="82"/>
-      <c r="AG29" s="82"/>
-      <c r="AH29" s="82"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="82"/>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="82"/>
-      <c r="AM29" s="82"/>
-      <c r="AN29" s="82"/>
-      <c r="AO29" s="82"/>
-      <c r="AP29" s="82"/>
-      <c r="AQ29" s="82"/>
-      <c r="AR29" s="82"/>
-      <c r="AS29" s="82"/>
-      <c r="AT29" s="82"/>
-      <c r="AU29" s="83"/>
-      <c r="AV29" s="83"/>
-      <c r="AW29" s="83"/>
-      <c r="AX29" s="83"/>
-      <c r="AY29" s="83"/>
-      <c r="AZ29" s="83"/>
-      <c r="BA29" s="83"/>
-      <c r="BB29" s="83"/>
-      <c r="BC29" s="83"/>
-      <c r="BD29" s="83"/>
-      <c r="BE29" s="83"/>
-      <c r="BF29" s="84"/>
+    <row r="29" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="44"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="41"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="41"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="41"/>
+      <c r="AK29" s="41"/>
+      <c r="AL29" s="41"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="41"/>
+      <c r="AO29" s="41"/>
+      <c r="AP29" s="41"/>
+      <c r="AQ29" s="41"/>
+      <c r="AR29" s="41"/>
+      <c r="AS29" s="41"/>
+      <c r="AT29" s="41"/>
+      <c r="AU29" s="42"/>
+      <c r="AV29" s="42"/>
+      <c r="AW29" s="42"/>
+      <c r="AX29" s="42"/>
+      <c r="AY29" s="42"/>
+      <c r="AZ29" s="42"/>
+      <c r="BA29" s="42"/>
+      <c r="BB29" s="42"/>
+      <c r="BC29" s="42"/>
+      <c r="BD29" s="42"/>
+      <c r="BE29" s="42"/>
+      <c r="BF29" s="43"/>
       <c r="BG29" s="19"/>
       <c r="BH29" s="19"/>
     </row>
-    <row r="30" spans="1:60" ht="15.75">
-      <c r="A30" s="86"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="81"/>
-      <c r="T30" s="81"/>
-      <c r="U30" s="81"/>
-      <c r="V30" s="81"/>
-      <c r="W30" s="81"/>
-      <c r="X30" s="81"/>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="81"/>
-      <c r="AA30" s="81"/>
-      <c r="AB30" s="81"/>
-      <c r="AC30" s="81"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="81"/>
-      <c r="AF30" s="82"/>
-      <c r="AG30" s="82"/>
-      <c r="AH30" s="82"/>
-      <c r="AI30" s="82"/>
-      <c r="AJ30" s="82"/>
-      <c r="AK30" s="82"/>
-      <c r="AL30" s="82"/>
-      <c r="AM30" s="82"/>
-      <c r="AN30" s="82"/>
-      <c r="AO30" s="82"/>
-      <c r="AP30" s="82"/>
-      <c r="AQ30" s="82"/>
-      <c r="AR30" s="82"/>
-      <c r="AS30" s="82"/>
-      <c r="AT30" s="82"/>
-      <c r="AU30" s="83"/>
-      <c r="AV30" s="83"/>
-      <c r="AW30" s="83"/>
-      <c r="AX30" s="83"/>
-      <c r="AY30" s="83"/>
-      <c r="AZ30" s="83"/>
-      <c r="BA30" s="83"/>
-      <c r="BB30" s="83"/>
-      <c r="BC30" s="83"/>
-      <c r="BD30" s="83"/>
-      <c r="BE30" s="83"/>
-      <c r="BF30" s="84"/>
+    <row r="30" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="45"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="41"/>
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="41"/>
+      <c r="AM30" s="41"/>
+      <c r="AN30" s="41"/>
+      <c r="AO30" s="41"/>
+      <c r="AP30" s="41"/>
+      <c r="AQ30" s="41"/>
+      <c r="AR30" s="41"/>
+      <c r="AS30" s="41"/>
+      <c r="AT30" s="41"/>
+      <c r="AU30" s="42"/>
+      <c r="AV30" s="42"/>
+      <c r="AW30" s="42"/>
+      <c r="AX30" s="42"/>
+      <c r="AY30" s="42"/>
+      <c r="AZ30" s="42"/>
+      <c r="BA30" s="42"/>
+      <c r="BB30" s="42"/>
+      <c r="BC30" s="42"/>
+      <c r="BD30" s="42"/>
+      <c r="BE30" s="42"/>
+      <c r="BF30" s="43"/>
       <c r="BG30" s="19"/>
       <c r="BH30" s="19"/>
     </row>
-    <row r="31" spans="1:60" ht="15.75">
-      <c r="A31" s="86"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="81"/>
-      <c r="T31" s="81"/>
-      <c r="U31" s="81"/>
-      <c r="V31" s="81"/>
-      <c r="W31" s="81"/>
-      <c r="X31" s="81"/>
-      <c r="Y31" s="81"/>
-      <c r="Z31" s="81"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="81"/>
-      <c r="AC31" s="81"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="81"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="82"/>
-      <c r="AK31" s="82"/>
-      <c r="AL31" s="82"/>
-      <c r="AM31" s="82"/>
-      <c r="AN31" s="82"/>
-      <c r="AO31" s="82"/>
-      <c r="AP31" s="82"/>
-      <c r="AQ31" s="82"/>
-      <c r="AR31" s="82"/>
-      <c r="AS31" s="82"/>
-      <c r="AT31" s="82"/>
-      <c r="AU31" s="83"/>
-      <c r="AV31" s="83"/>
-      <c r="AW31" s="83"/>
-      <c r="AX31" s="83"/>
-      <c r="AY31" s="83"/>
-      <c r="AZ31" s="83"/>
-      <c r="BA31" s="83"/>
-      <c r="BB31" s="83"/>
-      <c r="BC31" s="83"/>
-      <c r="BD31" s="83"/>
-      <c r="BE31" s="83"/>
-      <c r="BF31" s="84"/>
+    <row r="31" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
+      <c r="AW31" s="42"/>
+      <c r="AX31" s="42"/>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="42"/>
+      <c r="BA31" s="42"/>
+      <c r="BB31" s="42"/>
+      <c r="BC31" s="42"/>
+      <c r="BD31" s="42"/>
+      <c r="BE31" s="42"/>
+      <c r="BF31" s="43"/>
       <c r="BG31" s="19"/>
       <c r="BH31" s="19"/>
     </row>
-    <row r="32" spans="1:60" ht="15.75">
-      <c r="A32" s="86"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="81"/>
-      <c r="T32" s="81"/>
-      <c r="U32" s="81"/>
-      <c r="V32" s="81"/>
-      <c r="W32" s="81"/>
-      <c r="X32" s="81"/>
-      <c r="Y32" s="81"/>
-      <c r="Z32" s="81"/>
-      <c r="AA32" s="81"/>
-      <c r="AB32" s="83"/>
-      <c r="AC32" s="83"/>
-      <c r="AD32" s="83"/>
-      <c r="AE32" s="83"/>
-      <c r="AF32" s="82"/>
-      <c r="AG32" s="82"/>
-      <c r="AH32" s="82"/>
-      <c r="AI32" s="82"/>
-      <c r="AJ32" s="82"/>
-      <c r="AK32" s="82"/>
-      <c r="AL32" s="82"/>
-      <c r="AM32" s="82"/>
-      <c r="AN32" s="82"/>
-      <c r="AO32" s="82"/>
-      <c r="AP32" s="82"/>
-      <c r="AQ32" s="82"/>
-      <c r="AR32" s="82"/>
-      <c r="AS32" s="82"/>
-      <c r="AT32" s="82"/>
-      <c r="AU32" s="83"/>
-      <c r="AV32" s="83"/>
-      <c r="AW32" s="83"/>
-      <c r="AX32" s="83"/>
-      <c r="AY32" s="83"/>
-      <c r="AZ32" s="83"/>
-      <c r="BA32" s="83"/>
-      <c r="BB32" s="83"/>
-      <c r="BC32" s="83"/>
-      <c r="BD32" s="83"/>
-      <c r="BE32" s="83"/>
-      <c r="BF32" s="84"/>
+    <row r="32" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="45"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="41"/>
+      <c r="AK32" s="41"/>
+      <c r="AL32" s="41"/>
+      <c r="AM32" s="41"/>
+      <c r="AN32" s="41"/>
+      <c r="AO32" s="41"/>
+      <c r="AP32" s="41"/>
+      <c r="AQ32" s="41"/>
+      <c r="AR32" s="41"/>
+      <c r="AS32" s="41"/>
+      <c r="AT32" s="41"/>
+      <c r="AU32" s="42"/>
+      <c r="AV32" s="42"/>
+      <c r="AW32" s="42"/>
+      <c r="AX32" s="42"/>
+      <c r="AY32" s="42"/>
+      <c r="AZ32" s="42"/>
+      <c r="BA32" s="42"/>
+      <c r="BB32" s="42"/>
+      <c r="BC32" s="42"/>
+      <c r="BD32" s="42"/>
+      <c r="BE32" s="42"/>
+      <c r="BF32" s="43"/>
       <c r="BG32" s="19"/>
       <c r="BH32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BF5"/>
-    <mergeCell ref="BG5:BG7"/>
-    <mergeCell ref="BH5:BH7"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AA2:AD2"/>
@@ -6100,6 +6041,62 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="BH5:BH7"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="BG5:BG7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ogf-log.xlsx
+++ b/ogf-log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/upk-elogsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF9270D-56AD-A740-BC05-CA4C8B7C895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9578FA-4054-C843-8CC5-99393AD97B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL ROOM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
   <si>
     <t xml:space="preserve"> OUT GOING FEEDER PL AMPENAN</t>
   </si>
@@ -187,6 +187,12 @@
   <si>
     <t>FEEDER BUNG KARNO</t>
   </si>
+  <si>
+    <t>BEBAN PS 9</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
 </sst>
 </file>
 
@@ -835,73 +841,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1602,19 +1608,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY35"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN11" sqref="AN11"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="50" max="50" width="23.5" customWidth="1"/>
-    <col min="51" max="51" width="31.83203125" customWidth="1"/>
+    <col min="50" max="50" width="12.33203125" customWidth="1"/>
+    <col min="51" max="51" width="23.5" customWidth="1"/>
+    <col min="52" max="52" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1666,8 +1673,9 @@
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
-    </row>
-    <row r="2" spans="1:51" ht="20" x14ac:dyDescent="0.2">
+      <c r="AX1" s="1"/>
+    </row>
+    <row r="2" spans="1:52" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1719,8 +1727,9 @@
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
-    </row>
-    <row r="3" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AX2" s="1"/>
+    </row>
+    <row r="3" spans="1:52" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1770,8 +1779,9 @@
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AX3" s="1"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>2</v>
       </c>
@@ -1847,14 +1857,17 @@
       <c r="AU4" s="56"/>
       <c r="AV4" s="56"/>
       <c r="AW4" s="56"/>
-      <c r="AX4" s="49" t="s">
+      <c r="AX4" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="52" t="s">
+      <c r="AZ4" s="52" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="58"/>
       <c r="C5" s="59"/>
@@ -1904,10 +1917,11 @@
       <c r="AU5" s="59"/>
       <c r="AV5" s="59"/>
       <c r="AW5" s="59"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="53"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AX5" s="60"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="53"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="61"/>
       <c r="C6" s="62"/>
@@ -1957,10 +1971,11 @@
       <c r="AU6" s="62"/>
       <c r="AV6" s="62"/>
       <c r="AW6" s="62"/>
-      <c r="AX6" s="50"/>
-      <c r="AY6" s="53"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AX6" s="60"/>
+      <c r="AY6" s="50"/>
+      <c r="AZ6" s="53"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="7" t="s">
         <v>14</v>
@@ -2106,10 +2121,13 @@
       <c r="AW7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AX7" s="51"/>
-      <c r="AY7" s="54"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AX7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY7" s="51"/>
+      <c r="AZ7" s="54"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -2257,14 +2275,15 @@
       <c r="AW8" s="16">
         <v>49</v>
       </c>
-      <c r="AX8" s="7">
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="7">
         <v>50</v>
       </c>
-      <c r="AY8" s="17">
+      <c r="AZ8" s="17">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2314,10 +2333,11 @@
       <c r="AU9" s="14"/>
       <c r="AV9" s="14"/>
       <c r="AW9" s="18"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="20"/>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="20"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2367,10 +2387,11 @@
       <c r="AU10" s="14"/>
       <c r="AV10" s="14"/>
       <c r="AW10" s="18"/>
-      <c r="AX10" s="19"/>
-      <c r="AY10" s="20"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="20"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2420,10 +2441,11 @@
       <c r="AU11" s="14"/>
       <c r="AV11" s="14"/>
       <c r="AW11" s="18"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="20"/>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="20"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2473,10 +2495,11 @@
       <c r="AU12" s="14"/>
       <c r="AV12" s="14"/>
       <c r="AW12" s="18"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="20"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="20"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2526,10 +2549,11 @@
       <c r="AU13" s="14"/>
       <c r="AV13" s="14"/>
       <c r="AW13" s="18"/>
-      <c r="AX13" s="19"/>
-      <c r="AY13" s="20"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="20"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2579,10 +2603,11 @@
       <c r="AU14" s="14"/>
       <c r="AV14" s="14"/>
       <c r="AW14" s="18"/>
-      <c r="AX14" s="19"/>
-      <c r="AY14" s="20"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="20"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2632,10 +2657,11 @@
       <c r="AU15" s="14"/>
       <c r="AV15" s="14"/>
       <c r="AW15" s="18"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="20"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="19"/>
+      <c r="AZ15" s="20"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2685,10 +2711,11 @@
       <c r="AU16" s="14"/>
       <c r="AV16" s="14"/>
       <c r="AW16" s="18"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="20"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="20"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2738,10 +2765,11 @@
       <c r="AU17" s="14"/>
       <c r="AV17" s="14"/>
       <c r="AW17" s="18"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="20"/>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="20"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2791,10 +2819,11 @@
       <c r="AU18" s="14"/>
       <c r="AV18" s="14"/>
       <c r="AW18" s="18"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="20"/>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="20"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2844,10 +2873,11 @@
       <c r="AU19" s="14"/>
       <c r="AV19" s="14"/>
       <c r="AW19" s="18"/>
-      <c r="AX19" s="19"/>
-      <c r="AY19" s="20"/>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="20"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2897,10 +2927,11 @@
       <c r="AU20" s="14"/>
       <c r="AV20" s="14"/>
       <c r="AW20" s="18"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="20"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="20"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2950,10 +2981,11 @@
       <c r="AU21" s="14"/>
       <c r="AV21" s="14"/>
       <c r="AW21" s="18"/>
-      <c r="AX21" s="19"/>
-      <c r="AY21" s="20"/>
-    </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="19"/>
+      <c r="AZ21" s="20"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3003,10 +3035,11 @@
       <c r="AU22" s="14"/>
       <c r="AV22" s="14"/>
       <c r="AW22" s="18"/>
-      <c r="AX22" s="19"/>
-      <c r="AY22" s="20"/>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX22" s="18"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="20"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3056,10 +3089,11 @@
       <c r="AU23" s="14"/>
       <c r="AV23" s="14"/>
       <c r="AW23" s="18"/>
-      <c r="AX23" s="19"/>
-      <c r="AY23" s="20"/>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX23" s="18"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="20"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3109,10 +3143,11 @@
       <c r="AU24" s="14"/>
       <c r="AV24" s="14"/>
       <c r="AW24" s="18"/>
-      <c r="AX24" s="19"/>
-      <c r="AY24" s="20"/>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX24" s="18"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="20"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3162,10 +3197,11 @@
       <c r="AU25" s="14"/>
       <c r="AV25" s="14"/>
       <c r="AW25" s="18"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="20"/>
-    </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX25" s="18"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="20"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3215,10 +3251,11 @@
       <c r="AU26" s="14"/>
       <c r="AV26" s="14"/>
       <c r="AW26" s="18"/>
-      <c r="AX26" s="19"/>
-      <c r="AY26" s="20"/>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX26" s="18"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="20"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3268,10 +3305,11 @@
       <c r="AU27" s="14"/>
       <c r="AV27" s="14"/>
       <c r="AW27" s="18"/>
-      <c r="AX27" s="19"/>
-      <c r="AY27" s="20"/>
-    </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX27" s="18"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="20"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3321,10 +3359,11 @@
       <c r="AU28" s="14"/>
       <c r="AV28" s="14"/>
       <c r="AW28" s="18"/>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="20"/>
-    </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX28" s="18"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="20"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -3374,10 +3413,11 @@
       <c r="AU29" s="14"/>
       <c r="AV29" s="14"/>
       <c r="AW29" s="18"/>
-      <c r="AX29" s="19"/>
-      <c r="AY29" s="20"/>
-    </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX29" s="18"/>
+      <c r="AY29" s="19"/>
+      <c r="AZ29" s="20"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3427,10 +3467,11 @@
       <c r="AU30" s="14"/>
       <c r="AV30" s="14"/>
       <c r="AW30" s="18"/>
-      <c r="AX30" s="19"/>
-      <c r="AY30" s="20"/>
-    </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX30" s="18"/>
+      <c r="AY30" s="19"/>
+      <c r="AZ30" s="20"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3480,10 +3521,11 @@
       <c r="AU31" s="14"/>
       <c r="AV31" s="14"/>
       <c r="AW31" s="18"/>
-      <c r="AX31" s="19"/>
-      <c r="AY31" s="20"/>
-    </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX31" s="18"/>
+      <c r="AY31" s="19"/>
+      <c r="AZ31" s="20"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3533,10 +3575,11 @@
       <c r="AU32" s="14"/>
       <c r="AV32" s="14"/>
       <c r="AW32" s="18"/>
-      <c r="AX32" s="19"/>
-      <c r="AY32" s="20"/>
-    </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX32" s="18"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="20"/>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3586,10 +3629,11 @@
       <c r="AU33" s="14"/>
       <c r="AV33" s="14"/>
       <c r="AW33" s="18"/>
-      <c r="AX33" s="19"/>
-      <c r="AY33" s="20"/>
-    </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX33" s="18"/>
+      <c r="AY33" s="19"/>
+      <c r="AZ33" s="20"/>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -3639,10 +3683,11 @@
       <c r="AU34" s="14"/>
       <c r="AV34" s="14"/>
       <c r="AW34" s="18"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="20"/>
-    </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AX34" s="18"/>
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="20"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3692,14 +3737,15 @@
       <c r="AU35" s="15"/>
       <c r="AV35" s="15"/>
       <c r="AW35" s="21"/>
-      <c r="AX35" s="22"/>
-      <c r="AY35" s="23"/>
+      <c r="AX35" s="21"/>
+      <c r="AY35" s="22"/>
+      <c r="AZ35" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="AX4:AX7"/>
     <mergeCell ref="AY4:AY7"/>
+    <mergeCell ref="AZ4:AZ7"/>
     <mergeCell ref="B4:E6"/>
     <mergeCell ref="F4:I6"/>
     <mergeCell ref="J4:M6"/>
@@ -3712,6 +3758,7 @@
     <mergeCell ref="AL4:AO6"/>
     <mergeCell ref="AP4:AS6"/>
     <mergeCell ref="AT4:AW6"/>
+    <mergeCell ref="AX4:AX6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
@@ -3722,7 +3769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0961EBA6-69B7-47EA-9524-4C5A16E77B97}">
   <dimension ref="A1:BH32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5:O5"/>
     </sheetView>
   </sheetViews>
@@ -3761,12 +3808,12 @@
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
       <c r="Z1" s="28"/>
-      <c r="AA1" s="83" t="s">
+      <c r="AA1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
       <c r="AE1" s="29" t="s">
         <v>20</v>
       </c>
@@ -3829,12 +3876,12 @@
       <c r="X2" s="28"/>
       <c r="Y2" s="28"/>
       <c r="Z2" s="28"/>
-      <c r="AA2" s="83" t="s">
+      <c r="AA2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
       <c r="AE2" s="30"/>
       <c r="AF2" s="28"/>
       <c r="AG2" s="28"/>
@@ -3893,12 +3940,12 @@
       <c r="X3" s="28"/>
       <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
-      <c r="AA3" s="83" t="s">
+      <c r="AA3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
       <c r="AE3" s="30"/>
       <c r="AF3" s="28"/>
       <c r="AG3" s="28"/>
@@ -3989,271 +4036,271 @@
       <c r="BF4" s="28"/>
     </row>
     <row r="5" spans="1:60" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="85" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="75" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="75" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="85" t="s">
+      <c r="I5" s="72"/>
+      <c r="J5" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="86"/>
-      <c r="L5" s="75" t="s">
+      <c r="K5" s="70"/>
+      <c r="L5" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="75" t="s">
+      <c r="M5" s="72"/>
+      <c r="N5" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75" t="s">
+      <c r="O5" s="72"/>
+      <c r="P5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="82" t="s">
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="75" t="s">
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="75" t="s">
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="82" t="s">
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="75" t="s">
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="68" t="s">
+      <c r="AE5" s="72"/>
+      <c r="AF5" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="68" t="s">
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="68" t="s">
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="80"/>
+      <c r="AL5" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="68" t="s">
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="68" t="s">
+      <c r="AP5" s="79"/>
+      <c r="AQ5" s="80"/>
+      <c r="AR5" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="70"/>
-      <c r="AU5" s="68" t="s">
+      <c r="AS5" s="79"/>
+      <c r="AT5" s="80"/>
+      <c r="AU5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="77" t="s">
+      <c r="AV5" s="79"/>
+      <c r="AW5" s="80"/>
+      <c r="AX5" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="AY5" s="78"/>
-      <c r="AZ5" s="79"/>
-      <c r="BA5" s="77" t="s">
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="77"/>
+      <c r="BA5" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="BB5" s="78"/>
-      <c r="BC5" s="79"/>
-      <c r="BD5" s="77" t="s">
+      <c r="BB5" s="76"/>
+      <c r="BC5" s="77"/>
+      <c r="BD5" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="BE5" s="78"/>
-      <c r="BF5" s="78"/>
-      <c r="BG5" s="80" t="s">
+      <c r="BE5" s="76"/>
+      <c r="BF5" s="76"/>
+      <c r="BG5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="BH5" s="80" t="s">
+      <c r="BH5" s="74" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:60" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="84"/>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="K6" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="64" t="s">
+      <c r="L6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="M6" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="64" t="s">
+      <c r="O6" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="75" t="s">
+      <c r="P6" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="75" t="s">
+      <c r="Q6" s="72"/>
+      <c r="R6" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="76"/>
-      <c r="T6" s="75" t="s">
+      <c r="S6" s="72"/>
+      <c r="T6" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="76"/>
-      <c r="V6" s="75" t="s">
+      <c r="U6" s="72"/>
+      <c r="V6" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="76"/>
-      <c r="X6" s="71" t="s">
+      <c r="W6" s="72"/>
+      <c r="X6" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="73" t="s">
+      <c r="Y6" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="64" t="s">
+      <c r="Z6" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="AA6" s="64" t="s">
+      <c r="AA6" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" s="64" t="s">
+      <c r="AB6" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="AC6" s="64" t="s">
+      <c r="AC6" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="AD6" s="64" t="s">
+      <c r="AD6" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="AE6" s="64" t="s">
+      <c r="AE6" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="AF6" s="64" t="s">
+      <c r="AF6" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="AG6" s="64" t="s">
+      <c r="AG6" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="AH6" s="66" t="s">
+      <c r="AH6" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="AI6" s="64" t="s">
+      <c r="AI6" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="AJ6" s="64" t="s">
+      <c r="AJ6" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="AK6" s="66" t="s">
+      <c r="AK6" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="AL6" s="68" t="s">
+      <c r="AL6" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="AM6" s="69"/>
-      <c r="AN6" s="70"/>
-      <c r="AO6" s="68" t="s">
+      <c r="AM6" s="79"/>
+      <c r="AN6" s="80"/>
+      <c r="AO6" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="AP6" s="69"/>
-      <c r="AQ6" s="70"/>
-      <c r="AR6" s="68" t="s">
+      <c r="AP6" s="79"/>
+      <c r="AQ6" s="80"/>
+      <c r="AR6" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="AS6" s="69"/>
-      <c r="AT6" s="70"/>
-      <c r="AU6" s="68" t="s">
+      <c r="AS6" s="79"/>
+      <c r="AT6" s="80"/>
+      <c r="AU6" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="AV6" s="69"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="77" t="s">
+      <c r="AV6" s="79"/>
+      <c r="AW6" s="80"/>
+      <c r="AX6" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="AY6" s="78"/>
-      <c r="AZ6" s="79"/>
-      <c r="BA6" s="77" t="s">
+      <c r="AY6" s="76"/>
+      <c r="AZ6" s="77"/>
+      <c r="BA6" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="BB6" s="78"/>
-      <c r="BC6" s="79"/>
-      <c r="BD6" s="77"/>
-      <c r="BE6" s="78"/>
-      <c r="BF6" s="78"/>
-      <c r="BG6" s="80"/>
-      <c r="BH6" s="80"/>
+      <c r="BB6" s="76"/>
+      <c r="BC6" s="77"/>
+      <c r="BD6" s="75"/>
+      <c r="BE6" s="76"/>
+      <c r="BF6" s="76"/>
+      <c r="BG6" s="74"/>
+      <c r="BH6" s="74"/>
     </row>
     <row r="7" spans="1:60" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="74"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
       <c r="P7" s="31" t="s">
         <v>42</v>
       </c>
@@ -4278,20 +4325,20 @@
       <c r="W7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="67"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="86"/>
       <c r="AL7" s="33" t="s">
         <v>42</v>
       </c>
@@ -4355,8 +4402,8 @@
       <c r="BF7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="BG7" s="80"/>
-      <c r="BH7" s="80"/>
+      <c r="BG7" s="74"/>
+      <c r="BH7" s="74"/>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="36">
@@ -6030,6 +6077,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="BH5:BH7"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="BG5:BG7"/>
+    <mergeCell ref="AU6:AW6"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AA2:AD2"/>
@@ -6046,57 +6144,6 @@
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="BH5:BH7"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BF5"/>
-    <mergeCell ref="BG5:BG7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ogf-log.xlsx
+++ b/ogf-log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/upk-elogsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9578FA-4054-C843-8CC5-99393AD97B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD69FB4-15D7-044A-97BF-3A289E5C5495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL ROOM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
   <si>
     <t xml:space="preserve"> OUT GOING FEEDER PL AMPENAN</t>
   </si>
@@ -190,9 +190,6 @@
   <si>
     <t>BEBAN PS 9</t>
   </si>
-  <si>
-    <t>MW</t>
-  </si>
 </sst>
 </file>
 
@@ -841,73 +838,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1611,7 +1608,7 @@
   <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY11" sqref="AY11"/>
+      <selection activeCell="AX14" sqref="AX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2122,7 +2119,7 @@
         <v>17</v>
       </c>
       <c r="AX7" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="AY7" s="51"/>
       <c r="AZ7" s="54"/>
@@ -3808,12 +3805,12 @@
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
       <c r="Z1" s="28"/>
-      <c r="AA1" s="65" t="s">
+      <c r="AA1" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
       <c r="AE1" s="29" t="s">
         <v>20</v>
       </c>
@@ -3876,12 +3873,12 @@
       <c r="X2" s="28"/>
       <c r="Y2" s="28"/>
       <c r="Z2" s="28"/>
-      <c r="AA2" s="65" t="s">
+      <c r="AA2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
       <c r="AE2" s="30"/>
       <c r="AF2" s="28"/>
       <c r="AG2" s="28"/>
@@ -3940,12 +3937,12 @@
       <c r="X3" s="28"/>
       <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
-      <c r="AA3" s="65" t="s">
+      <c r="AA3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
       <c r="AE3" s="30"/>
       <c r="AF3" s="28"/>
       <c r="AG3" s="28"/>
@@ -4036,17 +4033,17 @@
       <c r="BF4" s="28"/>
     </row>
     <row r="5" spans="1:60" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="69" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="71" t="s">
         <v>50</v>
       </c>
@@ -4055,10 +4052,10 @@
         <v>28</v>
       </c>
       <c r="I5" s="72"/>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="70"/>
+      <c r="K5" s="85"/>
       <c r="L5" s="71" t="s">
         <v>30</v>
       </c>
@@ -4070,15 +4067,15 @@
       <c r="P5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="64" t="s">
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
       <c r="X5" s="71" t="s">
         <v>4</v>
       </c>
@@ -4087,108 +4084,108 @@
         <v>5</v>
       </c>
       <c r="AA5" s="72"/>
-      <c r="AB5" s="64" t="s">
+      <c r="AB5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="64"/>
+      <c r="AC5" s="81"/>
       <c r="AD5" s="71" t="s">
         <v>11</v>
       </c>
       <c r="AE5" s="72"/>
-      <c r="AF5" s="78" t="s">
+      <c r="AF5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="78" t="s">
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="80"/>
-      <c r="AL5" s="78" t="s">
+      <c r="AJ5" s="65"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="80"/>
-      <c r="AO5" s="78" t="s">
+      <c r="AM5" s="65"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="79"/>
-      <c r="AQ5" s="80"/>
-      <c r="AR5" s="78" t="s">
+      <c r="AP5" s="65"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="78" t="s">
+      <c r="AS5" s="65"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="AV5" s="79"/>
-      <c r="AW5" s="80"/>
-      <c r="AX5" s="75" t="s">
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="77"/>
-      <c r="BA5" s="75" t="s">
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="BB5" s="76"/>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="75" t="s">
+      <c r="BB5" s="79"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="BE5" s="76"/>
-      <c r="BF5" s="76"/>
-      <c r="BG5" s="74" t="s">
+      <c r="BE5" s="79"/>
+      <c r="BF5" s="79"/>
+      <c r="BG5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="BH5" s="74" t="s">
+      <c r="BH5" s="77" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:60" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
-      <c r="B6" s="81" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="81" t="s">
+      <c r="N6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="81" t="s">
+      <c r="O6" s="67" t="s">
         <v>41</v>
       </c>
       <c r="P6" s="71" t="s">
@@ -4207,100 +4204,100 @@
         <v>41</v>
       </c>
       <c r="W6" s="72"/>
-      <c r="X6" s="83" t="s">
+      <c r="X6" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="66" t="s">
+      <c r="Y6" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="81" t="s">
+      <c r="Z6" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AA6" s="81" t="s">
+      <c r="AA6" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" s="81" t="s">
+      <c r="AB6" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AC6" s="81" t="s">
+      <c r="AC6" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AD6" s="81" t="s">
+      <c r="AD6" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AE6" s="81" t="s">
+      <c r="AE6" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AF6" s="81" t="s">
+      <c r="AF6" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AG6" s="81" t="s">
+      <c r="AG6" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AH6" s="85" t="s">
+      <c r="AH6" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AI6" s="81" t="s">
+      <c r="AI6" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AJ6" s="81" t="s">
+      <c r="AJ6" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AK6" s="85" t="s">
+      <c r="AK6" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AL6" s="78" t="s">
+      <c r="AL6" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="AM6" s="79"/>
-      <c r="AN6" s="80"/>
-      <c r="AO6" s="78" t="s">
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="66"/>
+      <c r="AO6" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="AP6" s="79"/>
-      <c r="AQ6" s="80"/>
-      <c r="AR6" s="78" t="s">
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="AS6" s="79"/>
-      <c r="AT6" s="80"/>
-      <c r="AU6" s="78" t="s">
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="AV6" s="79"/>
-      <c r="AW6" s="80"/>
-      <c r="AX6" s="75" t="s">
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="66"/>
+      <c r="AX6" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="77"/>
-      <c r="BA6" s="75" t="s">
+      <c r="AY6" s="79"/>
+      <c r="AZ6" s="80"/>
+      <c r="BA6" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="BB6" s="76"/>
-      <c r="BC6" s="77"/>
-      <c r="BD6" s="75"/>
-      <c r="BE6" s="76"/>
-      <c r="BF6" s="76"/>
-      <c r="BG6" s="74"/>
-      <c r="BH6" s="74"/>
+      <c r="BB6" s="79"/>
+      <c r="BC6" s="80"/>
+      <c r="BD6" s="78"/>
+      <c r="BE6" s="79"/>
+      <c r="BF6" s="79"/>
+      <c r="BG6" s="77"/>
+      <c r="BH6" s="77"/>
     </row>
     <row r="7" spans="1:60" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
       <c r="P7" s="31" t="s">
         <v>42</v>
       </c>
@@ -4325,20 +4322,20 @@
       <c r="W7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="82"/>
-      <c r="AK7" s="86"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="70"/>
       <c r="AL7" s="33" t="s">
         <v>42</v>
       </c>
@@ -4402,8 +4399,8 @@
       <c r="BF7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="BG7" s="74"/>
-      <c r="BH7" s="74"/>
+      <c r="BG7" s="77"/>
+      <c r="BH7" s="77"/>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="36">
@@ -6077,41 +6074,22 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="BH5:BH7"/>
     <mergeCell ref="AX6:AZ6"/>
     <mergeCell ref="BA6:BC6"/>
@@ -6128,22 +6106,41 @@
     <mergeCell ref="BD5:BF5"/>
     <mergeCell ref="BG5:BG7"/>
     <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ogf-log.xlsx
+++ b/ogf-log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/upk-elogsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD69FB4-15D7-044A-97BF-3A289E5C5495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8350BBEA-123D-CC43-995C-6DC667D410AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL ROOM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
   <si>
     <t xml:space="preserve"> OUT GOING FEEDER PL AMPENAN</t>
   </si>
@@ -128,9 +128,6 @@
     <t>INCOMING 4</t>
   </si>
   <si>
-    <t>INCOMING 5</t>
-  </si>
-  <si>
     <t>INCOMING 6</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>LOMBOK III - NIIGATA</t>
   </si>
   <si>
-    <t>LOMBOK III - LOMBOK II</t>
-  </si>
-  <si>
     <t>LOMBOK III - ZV</t>
   </si>
   <si>
@@ -189,6 +183,9 @@
   </si>
   <si>
     <t>BEBAN PS 9</t>
+  </si>
+  <si>
+    <t>KEKALIK</t>
   </si>
 </sst>
 </file>
@@ -284,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -658,6 +655,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,73 +844,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1607,7 +1625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AX14" sqref="AX14"/>
     </sheetView>
   </sheetViews>
@@ -1807,7 +1825,7 @@
       <c r="P4" s="56"/>
       <c r="Q4" s="57"/>
       <c r="R4" s="55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S4" s="56"/>
       <c r="T4" s="56"/>
@@ -1837,7 +1855,7 @@
       <c r="AJ4" s="56"/>
       <c r="AK4" s="57"/>
       <c r="AL4" s="55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AM4" s="56"/>
       <c r="AN4" s="56"/>
@@ -1849,13 +1867,13 @@
       <c r="AR4" s="56"/>
       <c r="AS4" s="57"/>
       <c r="AT4" s="55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AU4" s="56"/>
       <c r="AV4" s="56"/>
       <c r="AW4" s="56"/>
       <c r="AX4" s="57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AY4" s="49" t="s">
         <v>12</v>
@@ -3766,8 +3784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0961EBA6-69B7-47EA-9524-4C5A16E77B97}">
   <dimension ref="A1:BH32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:O5"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3805,12 +3823,12 @@
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
       <c r="Z1" s="28"/>
-      <c r="AA1" s="82" t="s">
+      <c r="AA1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
       <c r="AE1" s="29" t="s">
         <v>20</v>
       </c>
@@ -3873,12 +3891,12 @@
       <c r="X2" s="28"/>
       <c r="Y2" s="28"/>
       <c r="Z2" s="28"/>
-      <c r="AA2" s="82" t="s">
+      <c r="AA2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
       <c r="AE2" s="30"/>
       <c r="AF2" s="28"/>
       <c r="AG2" s="28"/>
@@ -3937,12 +3955,12 @@
       <c r="X3" s="28"/>
       <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
-      <c r="AA3" s="82" t="s">
+      <c r="AA3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
       <c r="AE3" s="30"/>
       <c r="AF3" s="28"/>
       <c r="AG3" s="28"/>
@@ -4033,49 +4051,49 @@
       <c r="BF4" s="28"/>
     </row>
     <row r="5" spans="1:60" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="84" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="85"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="72"/>
       <c r="H5" s="71" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="72"/>
-      <c r="J5" s="84" t="s">
+      <c r="J5" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="85"/>
+      <c r="K5" s="70"/>
       <c r="L5" s="71" t="s">
         <v>30</v>
       </c>
       <c r="M5" s="72"/>
       <c r="N5" s="71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O5" s="72"/>
       <c r="P5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
       <c r="X5" s="71" t="s">
         <v>4</v>
       </c>
@@ -4084,323 +4102,321 @@
         <v>5</v>
       </c>
       <c r="AA5" s="72"/>
-      <c r="AB5" s="81" t="s">
+      <c r="AB5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="81"/>
+      <c r="AC5" s="64"/>
       <c r="AD5" s="71" t="s">
         <v>11</v>
       </c>
       <c r="AE5" s="72"/>
-      <c r="AF5" s="64" t="s">
+      <c r="AF5" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="64" t="s">
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="AJ5" s="65"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="64" t="s">
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="80"/>
+      <c r="AL5" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="AM5" s="65"/>
-      <c r="AN5" s="66"/>
-      <c r="AO5" s="64" t="s">
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="65"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="64" t="s">
+      <c r="AP5" s="79"/>
+      <c r="AQ5" s="80"/>
+      <c r="AR5" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS5" s="88"/>
+      <c r="AT5" s="85"/>
+      <c r="AU5" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="AS5" s="65"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="64" t="s">
+      <c r="AV5" s="79"/>
+      <c r="AW5" s="80"/>
+      <c r="AX5" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="66"/>
-      <c r="AX5" s="78" t="s">
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="77"/>
+      <c r="BA5" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="AY5" s="79"/>
-      <c r="AZ5" s="80"/>
-      <c r="BA5" s="78" t="s">
+      <c r="BB5" s="76"/>
+      <c r="BC5" s="77"/>
+      <c r="BD5" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="BB5" s="79"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="78" t="s">
+      <c r="BE5" s="76"/>
+      <c r="BF5" s="76"/>
+      <c r="BG5" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH5" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="67"/>
+      <c r="B6" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="BE5" s="79"/>
-      <c r="BF5" s="79"/>
-      <c r="BG5" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="BH5" s="77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="83"/>
-      <c r="B6" s="67" t="s">
+      <c r="C6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="67" t="s">
-        <v>41</v>
-      </c>
       <c r="P6" s="71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="72"/>
       <c r="R6" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U6" s="72"/>
       <c r="V6" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="72"/>
+      <c r="X6" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="72"/>
-      <c r="X6" s="73" t="s">
+      <c r="Y6" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="75" t="s">
+      <c r="Z6" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA6" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC6" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE6" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF6" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG6" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH6" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI6" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ6" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK6" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL6" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="67" t="s">
+      <c r="AM6" s="79"/>
+      <c r="AN6" s="80"/>
+      <c r="AO6" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP6" s="79"/>
+      <c r="AQ6" s="80"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="86"/>
+      <c r="AU6" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV6" s="79"/>
+      <c r="AW6" s="80"/>
+      <c r="AX6" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY6" s="76"/>
+      <c r="AZ6" s="77"/>
+      <c r="BA6" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB6" s="76"/>
+      <c r="BC6" s="77"/>
+      <c r="BD6" s="75"/>
+      <c r="BE6" s="76"/>
+      <c r="BF6" s="76"/>
+      <c r="BG6" s="74"/>
+      <c r="BH6" s="74"/>
+    </row>
+    <row r="7" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="68"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AA6" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB6" s="67" t="s">
+      <c r="R7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AC6" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD6" s="67" t="s">
+      <c r="T7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AE6" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF6" s="67" t="s">
+      <c r="V7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AG6" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH6" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI6" s="67" t="s">
+      <c r="X7" s="84"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM7" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ6" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK6" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL6" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP6" s="65"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS6" s="65"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV6" s="65"/>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY6" s="79"/>
-      <c r="AZ6" s="80"/>
-      <c r="BA6" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="BB6" s="79"/>
-      <c r="BC6" s="80"/>
-      <c r="BD6" s="78"/>
-      <c r="BE6" s="79"/>
-      <c r="BF6" s="79"/>
-      <c r="BG6" s="77"/>
-      <c r="BH6" s="77"/>
-    </row>
-    <row r="7" spans="1:60" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="76"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="W7" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="70"/>
-      <c r="AL7" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM7" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="AN7" s="34" t="s">
         <v>17</v>
       </c>
       <c r="AO7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP7" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="AP7" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="AQ7" s="34" t="s">
         <v>17</v>
       </c>
       <c r="AR7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS7" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="AS7" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="AT7" s="34" t="s">
         <v>17</v>
       </c>
       <c r="AU7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV7" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="AV7" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="AW7" s="34" t="s">
         <v>17</v>
       </c>
       <c r="AX7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY7" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="AY7" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="AZ7" s="34" t="s">
         <v>17</v>
       </c>
       <c r="BA7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB7" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="BB7" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="BC7" s="34" t="s">
         <v>17</v>
       </c>
       <c r="BD7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE7" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="BE7" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="BF7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="BG7" s="77"/>
-      <c r="BH7" s="77"/>
+      <c r="BG7" s="74"/>
+      <c r="BH7" s="74"/>
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="36">
@@ -6073,7 +6089,57 @@
       <c r="BH32" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="66">
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR5:AT6"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="BH5:BH7"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="BG5:BG7"/>
+    <mergeCell ref="AU6:AW6"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AA2:AD2"/>
@@ -6090,57 +6156,6 @@
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="BH5:BH7"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BF5"/>
-    <mergeCell ref="BG5:BG7"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
